--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="612">
   <si>
     <t>id</t>
   </si>
@@ -982,6 +982,879 @@
   </si>
   <si>
     <t>Glimes</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Chan</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Tashya</t>
+  </si>
+  <si>
+    <t>Freeman</t>
+  </si>
+  <si>
+    <t>Belmonte del Sannio</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Gilliam</t>
+  </si>
+  <si>
+    <t>Ganganagar</t>
+  </si>
+  <si>
+    <t>Colt</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Smoky Lake</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Hale</t>
+  </si>
+  <si>
+    <t>ZS2I 2DV</t>
+  </si>
+  <si>
+    <t>South Perth</t>
+  </si>
+  <si>
+    <t>Noelle</t>
+  </si>
+  <si>
+    <t>Pratt</t>
+  </si>
+  <si>
+    <t>Andalo</t>
+  </si>
+  <si>
+    <t>Clementine</t>
+  </si>
+  <si>
+    <t>Lindsey</t>
+  </si>
+  <si>
+    <t>Caloundra</t>
+  </si>
+  <si>
+    <t>Urielle</t>
+  </si>
+  <si>
+    <t>Randolph</t>
+  </si>
+  <si>
+    <t>R2 9WB</t>
+  </si>
+  <si>
+    <t>Terzorio</t>
+  </si>
+  <si>
+    <t>Alika</t>
+  </si>
+  <si>
+    <t>Lyons</t>
+  </si>
+  <si>
+    <t>3333OA</t>
+  </si>
+  <si>
+    <t>Hattiesburg</t>
+  </si>
+  <si>
+    <t>Maggy</t>
+  </si>
+  <si>
+    <t>Browning</t>
+  </si>
+  <si>
+    <t>Quirihue</t>
+  </si>
+  <si>
+    <t>Maris</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>60-457</t>
+  </si>
+  <si>
+    <t>Leamington</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
+    <t>Pierce</t>
+  </si>
+  <si>
+    <t>San Chirico Nuovo</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>Baldwin</t>
+  </si>
+  <si>
+    <t>Turriff</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>Bonner</t>
+  </si>
+  <si>
+    <t>Pincher Creek</t>
+  </si>
+  <si>
+    <t>Uriel</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Ferrere</t>
+  </si>
+  <si>
+    <t>Xerxes</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>Anderlues</t>
+  </si>
+  <si>
+    <t>Amethyst</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Graven Grez-Doiceau</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Duffy</t>
+  </si>
+  <si>
+    <t>Cádiz</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>TH3N 9HA</t>
+  </si>
+  <si>
+    <t>Saltara</t>
+  </si>
+  <si>
+    <t>Zelda</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>Colleretto Castelnuovo</t>
+  </si>
+  <si>
+    <t>Hedy</t>
+  </si>
+  <si>
+    <t>Gallegos</t>
+  </si>
+  <si>
+    <t>Boechout</t>
+  </si>
+  <si>
+    <t>Yen</t>
+  </si>
+  <si>
+    <t>Frazier</t>
+  </si>
+  <si>
+    <t>10-547</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>Wunstorf</t>
+  </si>
+  <si>
+    <t>Solomon</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>5606OQ</t>
+  </si>
+  <si>
+    <t>Gloucester</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Greer</t>
+  </si>
+  <si>
+    <t>Petit-Thier</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Zuienkerke</t>
+  </si>
+  <si>
+    <t>Gay</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Wilmont</t>
+  </si>
+  <si>
+    <t>Piper</t>
+  </si>
+  <si>
+    <t>Nixon</t>
+  </si>
+  <si>
+    <t>JX43 9BA</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>Barker</t>
+  </si>
+  <si>
+    <t>Desteldonk</t>
+  </si>
+  <si>
+    <t>Herrod</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>Juazeiro</t>
+  </si>
+  <si>
+    <t>Hubbard</t>
+  </si>
+  <si>
+    <t>Corvino San Quirico</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>10979-453</t>
+  </si>
+  <si>
+    <t>Lampa</t>
+  </si>
+  <si>
+    <t>Beatrice</t>
+  </si>
+  <si>
+    <t>Varsenare</t>
+  </si>
+  <si>
+    <t>Callie</t>
+  </si>
+  <si>
+    <t>Airdrie</t>
+  </si>
+  <si>
+    <t>Maisie</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Meredith</t>
+  </si>
+  <si>
+    <t>Sykes</t>
+  </si>
+  <si>
+    <t>Biarritz</t>
+  </si>
+  <si>
+    <t>Gillian</t>
+  </si>
+  <si>
+    <t>Würzburg</t>
+  </si>
+  <si>
+    <t>Maxine</t>
+  </si>
+  <si>
+    <t>Vaughn</t>
+  </si>
+  <si>
+    <t>Invergordon</t>
+  </si>
+  <si>
+    <t>Kuame</t>
+  </si>
+  <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>Freiberg</t>
+  </si>
+  <si>
+    <t>Aphrodite</t>
+  </si>
+  <si>
+    <t>Cunningham</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>Amlwch</t>
+  </si>
+  <si>
+    <t>Mufutau</t>
+  </si>
+  <si>
+    <t>Glover</t>
+  </si>
+  <si>
+    <t>35178-879</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>T1M 6G7</t>
+  </si>
+  <si>
+    <t>Anthisnes</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Roermond</t>
+  </si>
+  <si>
+    <t>Randall</t>
+  </si>
+  <si>
+    <t>Camacho</t>
+  </si>
+  <si>
+    <t>Steyr</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>Llanquihue</t>
+  </si>
+  <si>
+    <t>Malik</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Lourdes</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>Beaufays</t>
+  </si>
+  <si>
+    <t>Shana</t>
+  </si>
+  <si>
+    <t>Gentry</t>
+  </si>
+  <si>
+    <t>Albi</t>
+  </si>
+  <si>
+    <t>Hurley</t>
+  </si>
+  <si>
+    <t>Newmarket</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Joinville</t>
+  </si>
+  <si>
+    <t>Solis</t>
+  </si>
+  <si>
+    <t>Thiaumont</t>
+  </si>
+  <si>
+    <t>Norris</t>
+  </si>
+  <si>
+    <t>70-882</t>
+  </si>
+  <si>
+    <t>Vastogirardi</t>
+  </si>
+  <si>
+    <t>Myles</t>
+  </si>
+  <si>
+    <t>Cerro Navia</t>
+  </si>
+  <si>
+    <t>Mathis</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Hyatt</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>Scena/Schenna</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
+    <t>Den Helder</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
+    <t>Maldonado</t>
+  </si>
+  <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
+    <t>Mollie</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>B6W 7H8</t>
+  </si>
+  <si>
+    <t>Purranque</t>
+  </si>
+  <si>
+    <t>Heath</t>
+  </si>
+  <si>
+    <t>Ripabottoni</t>
+  </si>
+  <si>
+    <t>Macy</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Hereford</t>
+  </si>
+  <si>
+    <t>Jarrod</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Paranaguá</t>
+  </si>
+  <si>
+    <t>Charde</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Flint</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>Owen Sound</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>YS7Z 0YC</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Briggs</t>
+  </si>
+  <si>
+    <t>Orsara di Puglia</t>
+  </si>
+  <si>
+    <t>Aline</t>
+  </si>
+  <si>
+    <t>Russo</t>
+  </si>
+  <si>
+    <t>Termeno sulla strada del vino/Tramin an der Weinstrasse</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Wilkins</t>
+  </si>
+  <si>
+    <t>Weiz</t>
+  </si>
+  <si>
+    <t>Hop</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
+    <t>Saint-Mard</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Hexham</t>
+  </si>
+  <si>
+    <t>Buckminster</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>RS0T 0KU</t>
+  </si>
+  <si>
+    <t>Palmariggi</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Penicuik</t>
+  </si>
+  <si>
+    <t>Holman</t>
+  </si>
+  <si>
+    <t>P8 8TP</t>
+  </si>
+  <si>
+    <t>Kızılcahamam</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Calderon</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>MG65 8IA</t>
+  </si>
+  <si>
+    <t>Etalle</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t>9894GZ</t>
+  </si>
+  <si>
+    <t>Oetingen</t>
+  </si>
+  <si>
+    <t>Daria</t>
+  </si>
+  <si>
+    <t>Patton</t>
+  </si>
+  <si>
+    <t>Modakeke</t>
+  </si>
+  <si>
+    <t>Emery</t>
+  </si>
+  <si>
+    <t>Horton</t>
+  </si>
+  <si>
+    <t>8007WK</t>
+  </si>
+  <si>
+    <t>Novo Hamburgo</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>32-025</t>
+  </si>
+  <si>
+    <t>Sasaram</t>
+  </si>
+  <si>
+    <t>Alfonso</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Quillota</t>
+  </si>
+  <si>
+    <t>Peck</t>
+  </si>
+  <si>
+    <t>Aparecida de Goiânia</t>
+  </si>
+  <si>
+    <t>Elmo</t>
+  </si>
+  <si>
+    <t>Berger</t>
+  </si>
+  <si>
+    <t>Villa Latina</t>
+  </si>
+  <si>
+    <t>Osborn</t>
+  </si>
+  <si>
+    <t>M21 3TG</t>
+  </si>
+  <si>
+    <t>Sant'Eufemia a Maiella</t>
+  </si>
+  <si>
+    <t>Mcguire</t>
+  </si>
+  <si>
+    <t>Telfs</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Lampertheim</t>
+  </si>
+  <si>
+    <t>Nadine</t>
+  </si>
+  <si>
+    <t>Padilla</t>
+  </si>
+  <si>
+    <t>Rocca San Felice</t>
+  </si>
+  <si>
+    <t>Rama</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>8715XR</t>
+  </si>
+  <si>
+    <t>Smithers</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Zamora</t>
+  </si>
+  <si>
+    <t>Brechin</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Calco</t>
+  </si>
+  <si>
+    <t>Roary</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>IA4 6QZ</t>
+  </si>
+  <si>
+    <t>Bamberg</t>
+  </si>
+  <si>
+    <t>Willa</t>
+  </si>
+  <si>
+    <t>Kemp</t>
+  </si>
+  <si>
+    <t>Fort Saskatchewan</t>
+  </si>
+  <si>
+    <t>Nash</t>
+  </si>
+  <si>
+    <t>Vauda Canavese</t>
+  </si>
+  <si>
+    <t>Edan</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>Hattem</t>
+  </si>
+  <si>
+    <t>Curran</t>
+  </si>
+  <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Nemoli</t>
+  </si>
+  <si>
+    <t>Dakota</t>
+  </si>
+  <si>
+    <t>Lester</t>
+  </si>
+  <si>
+    <t>N6S 4OX</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Maipú</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>Hester</t>
+  </si>
+  <si>
+    <t>Scheggino</t>
   </si>
 </sst>
 </file>
@@ -1331,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,6 +4538,2306 @@
       </c>
       <c r="G101" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" t="s">
+        <v>322</v>
+      </c>
+      <c r="D102">
+        <v>270237</v>
+      </c>
+      <c r="E102">
+        <v>6.4074200000000001</v>
+      </c>
+      <c r="F102">
+        <v>-100.02434</v>
+      </c>
+      <c r="G102" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" t="s">
+        <v>325</v>
+      </c>
+      <c r="D103">
+        <v>6430</v>
+      </c>
+      <c r="E103">
+        <v>-32.64649</v>
+      </c>
+      <c r="F103">
+        <v>-51.447519999999997</v>
+      </c>
+      <c r="G103" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>327</v>
+      </c>
+      <c r="C104" t="s">
+        <v>328</v>
+      </c>
+      <c r="D104">
+        <v>246810</v>
+      </c>
+      <c r="E104">
+        <v>-46.805239999999998</v>
+      </c>
+      <c r="F104">
+        <v>-81.427819999999997</v>
+      </c>
+      <c r="G104" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>330</v>
+      </c>
+      <c r="C105" t="s">
+        <v>331</v>
+      </c>
+      <c r="D105">
+        <v>139401</v>
+      </c>
+      <c r="E105">
+        <v>46.69502</v>
+      </c>
+      <c r="F105">
+        <v>85.743579999999994</v>
+      </c>
+      <c r="G105" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" t="s">
+        <v>335</v>
+      </c>
+      <c r="E106">
+        <v>12.2529</v>
+      </c>
+      <c r="F106">
+        <v>-162.58542</v>
+      </c>
+      <c r="G106" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>337</v>
+      </c>
+      <c r="C107" t="s">
+        <v>338</v>
+      </c>
+      <c r="D107">
+        <v>10108</v>
+      </c>
+      <c r="E107">
+        <v>81.585520000000002</v>
+      </c>
+      <c r="F107">
+        <v>54.724969999999999</v>
+      </c>
+      <c r="G107" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>340</v>
+      </c>
+      <c r="C108" t="s">
+        <v>341</v>
+      </c>
+      <c r="D108">
+        <v>80685</v>
+      </c>
+      <c r="E108">
+        <v>-13.877980000000001</v>
+      </c>
+      <c r="F108">
+        <v>-154.25183999999999</v>
+      </c>
+      <c r="G108" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>343</v>
+      </c>
+      <c r="C109" t="s">
+        <v>344</v>
+      </c>
+      <c r="D109" t="s">
+        <v>345</v>
+      </c>
+      <c r="E109">
+        <v>-56.595129999999997</v>
+      </c>
+      <c r="F109">
+        <v>-37.051079999999999</v>
+      </c>
+      <c r="G109" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" t="s">
+        <v>348</v>
+      </c>
+      <c r="D110" t="s">
+        <v>349</v>
+      </c>
+      <c r="E110">
+        <v>-23.37951</v>
+      </c>
+      <c r="F110">
+        <v>-97.021199999999993</v>
+      </c>
+      <c r="G110" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>351</v>
+      </c>
+      <c r="C111" t="s">
+        <v>352</v>
+      </c>
+      <c r="D111">
+        <v>3332</v>
+      </c>
+      <c r="E111">
+        <v>49.310139999999997</v>
+      </c>
+      <c r="F111">
+        <v>-58.264339999999997</v>
+      </c>
+      <c r="G111" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>354</v>
+      </c>
+      <c r="C112" t="s">
+        <v>355</v>
+      </c>
+      <c r="D112" t="s">
+        <v>356</v>
+      </c>
+      <c r="E112">
+        <v>60.512639999999998</v>
+      </c>
+      <c r="F112">
+        <v>-146.00461000000001</v>
+      </c>
+      <c r="G112" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>358</v>
+      </c>
+      <c r="C113" t="s">
+        <v>359</v>
+      </c>
+      <c r="D113">
+        <v>24908</v>
+      </c>
+      <c r="E113">
+        <v>-5.7158100000000003</v>
+      </c>
+      <c r="F113">
+        <v>-150.18817999999999</v>
+      </c>
+      <c r="G113" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114">
+        <v>2956</v>
+      </c>
+      <c r="E114">
+        <v>-61.939749999999997</v>
+      </c>
+      <c r="F114">
+        <v>-170.77735000000001</v>
+      </c>
+      <c r="G114" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>362</v>
+      </c>
+      <c r="C115" t="s">
+        <v>363</v>
+      </c>
+      <c r="D115">
+        <v>316443</v>
+      </c>
+      <c r="E115">
+        <v>26.928090000000001</v>
+      </c>
+      <c r="F115">
+        <v>-11.203060000000001</v>
+      </c>
+      <c r="G115" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>365</v>
+      </c>
+      <c r="C116" t="s">
+        <v>366</v>
+      </c>
+      <c r="D116">
+        <v>85276</v>
+      </c>
+      <c r="E116">
+        <v>66.703599999999994</v>
+      </c>
+      <c r="F116">
+        <v>89.128870000000006</v>
+      </c>
+      <c r="G116" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>368</v>
+      </c>
+      <c r="C117" t="s">
+        <v>369</v>
+      </c>
+      <c r="D117">
+        <v>92077</v>
+      </c>
+      <c r="E117">
+        <v>42.599449999999997</v>
+      </c>
+      <c r="F117">
+        <v>-9.6302599999999998</v>
+      </c>
+      <c r="G117" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>371</v>
+      </c>
+      <c r="C118" t="s">
+        <v>372</v>
+      </c>
+      <c r="D118">
+        <v>51809</v>
+      </c>
+      <c r="E118">
+        <v>69.430620000000005</v>
+      </c>
+      <c r="F118">
+        <v>166.56061</v>
+      </c>
+      <c r="G118" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>374</v>
+      </c>
+      <c r="C119" t="s">
+        <v>375</v>
+      </c>
+      <c r="D119">
+        <v>392</v>
+      </c>
+      <c r="E119">
+        <v>-37.026020000000003</v>
+      </c>
+      <c r="F119">
+        <v>-50.737580000000001</v>
+      </c>
+      <c r="G119" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>377</v>
+      </c>
+      <c r="C120" t="s">
+        <v>378</v>
+      </c>
+      <c r="D120">
+        <v>77740</v>
+      </c>
+      <c r="E120">
+        <v>-44.254759999999997</v>
+      </c>
+      <c r="F120">
+        <v>-74.911959999999993</v>
+      </c>
+      <c r="G120" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>380</v>
+      </c>
+      <c r="C121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" t="s">
+        <v>381</v>
+      </c>
+      <c r="E121">
+        <v>17.853549999999998</v>
+      </c>
+      <c r="F121">
+        <v>-91.805840000000003</v>
+      </c>
+      <c r="G121" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>383</v>
+      </c>
+      <c r="C122" t="s">
+        <v>384</v>
+      </c>
+      <c r="D122">
+        <v>330676</v>
+      </c>
+      <c r="E122">
+        <v>-71.480270000000004</v>
+      </c>
+      <c r="F122">
+        <v>-115.42267</v>
+      </c>
+      <c r="G122" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>386</v>
+      </c>
+      <c r="C123" t="s">
+        <v>387</v>
+      </c>
+      <c r="D123">
+        <v>177826</v>
+      </c>
+      <c r="E123">
+        <v>46.741599999999998</v>
+      </c>
+      <c r="F123">
+        <v>42.835599999999999</v>
+      </c>
+      <c r="G123" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" t="s">
+        <v>390</v>
+      </c>
+      <c r="D124" t="s">
+        <v>391</v>
+      </c>
+      <c r="E124">
+        <v>29.052600000000002</v>
+      </c>
+      <c r="F124">
+        <v>75.744919999999993</v>
+      </c>
+      <c r="G124" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>393</v>
+      </c>
+      <c r="C125" t="s">
+        <v>394</v>
+      </c>
+      <c r="D125">
+        <v>72629</v>
+      </c>
+      <c r="E125">
+        <v>40.480310000000003</v>
+      </c>
+      <c r="F125">
+        <v>-99.616609999999994</v>
+      </c>
+      <c r="G125" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>396</v>
+      </c>
+      <c r="C126" t="s">
+        <v>397</v>
+      </c>
+      <c r="D126" t="s">
+        <v>398</v>
+      </c>
+      <c r="E126">
+        <v>-49.365290000000002</v>
+      </c>
+      <c r="F126">
+        <v>86.968500000000006</v>
+      </c>
+      <c r="G126" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>400</v>
+      </c>
+      <c r="C127" t="s">
+        <v>401</v>
+      </c>
+      <c r="D127">
+        <v>6279</v>
+      </c>
+      <c r="E127">
+        <v>-9.8569700000000005</v>
+      </c>
+      <c r="F127">
+        <v>179.92610999999999</v>
+      </c>
+      <c r="G127" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" t="s">
+        <v>403</v>
+      </c>
+      <c r="D128">
+        <v>36069</v>
+      </c>
+      <c r="E128">
+        <v>68.66892</v>
+      </c>
+      <c r="F128">
+        <v>-119.34305000000001</v>
+      </c>
+      <c r="G128" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>405</v>
+      </c>
+      <c r="C129" t="s">
+        <v>406</v>
+      </c>
+      <c r="D129">
+        <v>55269</v>
+      </c>
+      <c r="E129">
+        <v>81.717320000000001</v>
+      </c>
+      <c r="F129">
+        <v>-78.831029999999998</v>
+      </c>
+      <c r="G129" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>408</v>
+      </c>
+      <c r="C130" t="s">
+        <v>409</v>
+      </c>
+      <c r="D130" t="s">
+        <v>410</v>
+      </c>
+      <c r="E130">
+        <v>78.695340000000002</v>
+      </c>
+      <c r="F130">
+        <v>-118.08316000000001</v>
+      </c>
+      <c r="G130" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>411</v>
+      </c>
+      <c r="C131" t="s">
+        <v>412</v>
+      </c>
+      <c r="D131">
+        <v>276183</v>
+      </c>
+      <c r="E131">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="F131">
+        <v>-92.682400000000001</v>
+      </c>
+      <c r="G131" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>414</v>
+      </c>
+      <c r="C132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D132">
+        <v>22979</v>
+      </c>
+      <c r="E132">
+        <v>-41.639310000000002</v>
+      </c>
+      <c r="F132">
+        <v>-7.64208</v>
+      </c>
+      <c r="G132" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>405</v>
+      </c>
+      <c r="C133" t="s">
+        <v>417</v>
+      </c>
+      <c r="D133">
+        <v>81294</v>
+      </c>
+      <c r="E133">
+        <v>-5.6216900000000001</v>
+      </c>
+      <c r="F133">
+        <v>-139.66981000000001</v>
+      </c>
+      <c r="G133" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>419</v>
+      </c>
+      <c r="C134" t="s">
+        <v>64</v>
+      </c>
+      <c r="D134" t="s">
+        <v>420</v>
+      </c>
+      <c r="E134">
+        <v>-14.365069999999999</v>
+      </c>
+      <c r="F134">
+        <v>130.73455000000001</v>
+      </c>
+      <c r="G134" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>422</v>
+      </c>
+      <c r="C135" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135">
+        <v>90841</v>
+      </c>
+      <c r="E135">
+        <v>41.93938</v>
+      </c>
+      <c r="F135">
+        <v>-155.88133999999999</v>
+      </c>
+      <c r="G135" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>424</v>
+      </c>
+      <c r="C136" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136">
+        <v>67854</v>
+      </c>
+      <c r="E136">
+        <v>69.315280000000001</v>
+      </c>
+      <c r="F136">
+        <v>147.24804</v>
+      </c>
+      <c r="G136" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>426</v>
+      </c>
+      <c r="C137" t="s">
+        <v>427</v>
+      </c>
+      <c r="D137">
+        <v>15887</v>
+      </c>
+      <c r="E137">
+        <v>74.983310000000003</v>
+      </c>
+      <c r="F137">
+        <v>-124.7547</v>
+      </c>
+      <c r="G137" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>429</v>
+      </c>
+      <c r="C138" t="s">
+        <v>430</v>
+      </c>
+      <c r="D138">
+        <v>1006</v>
+      </c>
+      <c r="E138">
+        <v>-3.4958399999999998</v>
+      </c>
+      <c r="F138">
+        <v>-13.75813</v>
+      </c>
+      <c r="G138" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>432</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>15731</v>
+      </c>
+      <c r="E139">
+        <v>11.365259999999999</v>
+      </c>
+      <c r="F139">
+        <v>-169.78835000000001</v>
+      </c>
+      <c r="G139" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>434</v>
+      </c>
+      <c r="C140" t="s">
+        <v>435</v>
+      </c>
+      <c r="D140">
+        <v>80054</v>
+      </c>
+      <c r="E140">
+        <v>-47.025089999999999</v>
+      </c>
+      <c r="F140">
+        <v>108.27643999999999</v>
+      </c>
+      <c r="G140" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>437</v>
+      </c>
+      <c r="C141" t="s">
+        <v>438</v>
+      </c>
+      <c r="D141">
+        <v>69916</v>
+      </c>
+      <c r="E141">
+        <v>42.490169999999999</v>
+      </c>
+      <c r="F141">
+        <v>-97.652810000000002</v>
+      </c>
+      <c r="G141" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>440</v>
+      </c>
+      <c r="C142" t="s">
+        <v>441</v>
+      </c>
+      <c r="D142">
+        <v>3953</v>
+      </c>
+      <c r="E142">
+        <v>-29.01013</v>
+      </c>
+      <c r="F142">
+        <v>162.94538</v>
+      </c>
+      <c r="G142" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>442</v>
+      </c>
+      <c r="C143" t="s">
+        <v>403</v>
+      </c>
+      <c r="D143">
+        <v>610580</v>
+      </c>
+      <c r="E143">
+        <v>88.329980000000006</v>
+      </c>
+      <c r="F143">
+        <v>32.052990000000001</v>
+      </c>
+      <c r="G143" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>444</v>
+      </c>
+      <c r="C144" t="s">
+        <v>445</v>
+      </c>
+      <c r="D144" t="s">
+        <v>446</v>
+      </c>
+      <c r="E144">
+        <v>-60.490360000000003</v>
+      </c>
+      <c r="F144">
+        <v>40.74521</v>
+      </c>
+      <c r="G144" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>448</v>
+      </c>
+      <c r="C145" t="s">
+        <v>449</v>
+      </c>
+      <c r="D145" t="s">
+        <v>450</v>
+      </c>
+      <c r="E145">
+        <v>86.596029999999999</v>
+      </c>
+      <c r="F145">
+        <v>-77.517840000000007</v>
+      </c>
+      <c r="G145" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>452</v>
+      </c>
+      <c r="C146" t="s">
+        <v>453</v>
+      </c>
+      <c r="D146">
+        <v>8598</v>
+      </c>
+      <c r="E146">
+        <v>-32.573819999999998</v>
+      </c>
+      <c r="F146">
+        <v>0.49052000000000001</v>
+      </c>
+      <c r="G146" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>455</v>
+      </c>
+      <c r="C147" t="s">
+        <v>456</v>
+      </c>
+      <c r="D147">
+        <v>81117</v>
+      </c>
+      <c r="E147">
+        <v>14.84634</v>
+      </c>
+      <c r="F147">
+        <v>84.127920000000003</v>
+      </c>
+      <c r="G147" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>458</v>
+      </c>
+      <c r="C148" t="s">
+        <v>459</v>
+      </c>
+      <c r="D148">
+        <v>5700</v>
+      </c>
+      <c r="E148">
+        <v>82.066270000000003</v>
+      </c>
+      <c r="F148">
+        <v>-25.926480000000002</v>
+      </c>
+      <c r="G148" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>460</v>
+      </c>
+      <c r="C149" t="s">
+        <v>461</v>
+      </c>
+      <c r="D149">
+        <v>391252</v>
+      </c>
+      <c r="E149">
+        <v>-55.466639999999998</v>
+      </c>
+      <c r="F149">
+        <v>138.18019000000001</v>
+      </c>
+      <c r="G149" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>463</v>
+      </c>
+      <c r="C150" t="s">
+        <v>464</v>
+      </c>
+      <c r="D150">
+        <v>41213</v>
+      </c>
+      <c r="E150">
+        <v>60.359229999999997</v>
+      </c>
+      <c r="F150">
+        <v>-46.87641</v>
+      </c>
+      <c r="G150" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>466</v>
+      </c>
+      <c r="C151" t="s">
+        <v>467</v>
+      </c>
+      <c r="D151">
+        <v>20999</v>
+      </c>
+      <c r="E151">
+        <v>16.011520000000001</v>
+      </c>
+      <c r="F151">
+        <v>131.79512</v>
+      </c>
+      <c r="G151" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>469</v>
+      </c>
+      <c r="C152" t="s">
+        <v>470</v>
+      </c>
+      <c r="D152">
+        <v>43867</v>
+      </c>
+      <c r="E152">
+        <v>56.604579999999999</v>
+      </c>
+      <c r="F152">
+        <v>-103.81851</v>
+      </c>
+      <c r="G152" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" t="s">
+        <v>472</v>
+      </c>
+      <c r="D153">
+        <v>61800</v>
+      </c>
+      <c r="E153">
+        <v>76.832520000000002</v>
+      </c>
+      <c r="F153">
+        <v>-131.04526999999999</v>
+      </c>
+      <c r="G153" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154" t="s">
+        <v>474</v>
+      </c>
+      <c r="D154">
+        <v>9871</v>
+      </c>
+      <c r="E154">
+        <v>41.193849999999998</v>
+      </c>
+      <c r="F154">
+        <v>59.569830000000003</v>
+      </c>
+      <c r="G154" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>380</v>
+      </c>
+      <c r="C155" t="s">
+        <v>476</v>
+      </c>
+      <c r="D155">
+        <v>49420</v>
+      </c>
+      <c r="E155">
+        <v>-79.652320000000003</v>
+      </c>
+      <c r="F155">
+        <v>-135.75219000000001</v>
+      </c>
+      <c r="G155" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>426</v>
+      </c>
+      <c r="C156" t="s">
+        <v>478</v>
+      </c>
+      <c r="D156" t="s">
+        <v>479</v>
+      </c>
+      <c r="E156">
+        <v>9.0158400000000007</v>
+      </c>
+      <c r="F156">
+        <v>-64.606530000000006</v>
+      </c>
+      <c r="G156" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>481</v>
+      </c>
+      <c r="C157" t="s">
+        <v>256</v>
+      </c>
+      <c r="D157">
+        <v>65794</v>
+      </c>
+      <c r="E157">
+        <v>-85.147090000000006</v>
+      </c>
+      <c r="F157">
+        <v>117.13861</v>
+      </c>
+      <c r="G157" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>109</v>
+      </c>
+      <c r="C158" t="s">
+        <v>483</v>
+      </c>
+      <c r="D158">
+        <v>10213</v>
+      </c>
+      <c r="E158">
+        <v>81.453540000000004</v>
+      </c>
+      <c r="F158">
+        <v>155.178</v>
+      </c>
+      <c r="G158" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>485</v>
+      </c>
+      <c r="C159" t="s">
+        <v>486</v>
+      </c>
+      <c r="D159">
+        <v>495346</v>
+      </c>
+      <c r="E159">
+        <v>-25.374659999999999</v>
+      </c>
+      <c r="F159">
+        <v>-77.299030000000002</v>
+      </c>
+      <c r="G159" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>488</v>
+      </c>
+      <c r="C160" t="s">
+        <v>301</v>
+      </c>
+      <c r="D160">
+        <v>38394</v>
+      </c>
+      <c r="E160">
+        <v>30.23338</v>
+      </c>
+      <c r="F160">
+        <v>77.58672</v>
+      </c>
+      <c r="G160" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>490</v>
+      </c>
+      <c r="C161" t="s">
+        <v>491</v>
+      </c>
+      <c r="D161">
+        <v>32291</v>
+      </c>
+      <c r="E161">
+        <v>-89.224230000000006</v>
+      </c>
+      <c r="F161">
+        <v>140.57909000000001</v>
+      </c>
+      <c r="G161" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>493</v>
+      </c>
+      <c r="C162" t="s">
+        <v>494</v>
+      </c>
+      <c r="D162" t="s">
+        <v>495</v>
+      </c>
+      <c r="E162">
+        <v>54.69238</v>
+      </c>
+      <c r="F162">
+        <v>-33.391649999999998</v>
+      </c>
+      <c r="G162" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>104</v>
+      </c>
+      <c r="C163" t="s">
+        <v>497</v>
+      </c>
+      <c r="D163">
+        <v>419840</v>
+      </c>
+      <c r="E163">
+        <v>18.361599999999999</v>
+      </c>
+      <c r="F163">
+        <v>-153.33857</v>
+      </c>
+      <c r="G163" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>499</v>
+      </c>
+      <c r="C164" t="s">
+        <v>500</v>
+      </c>
+      <c r="D164">
+        <v>2790</v>
+      </c>
+      <c r="E164">
+        <v>63.142650000000003</v>
+      </c>
+      <c r="F164">
+        <v>131.77350999999999</v>
+      </c>
+      <c r="G164" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>502</v>
+      </c>
+      <c r="C165" t="s">
+        <v>503</v>
+      </c>
+      <c r="D165">
+        <v>931882</v>
+      </c>
+      <c r="E165">
+        <v>-28.697340000000001</v>
+      </c>
+      <c r="F165">
+        <v>135.59868</v>
+      </c>
+      <c r="G165" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>505</v>
+      </c>
+      <c r="C166" t="s">
+        <v>506</v>
+      </c>
+      <c r="D166">
+        <v>464992</v>
+      </c>
+      <c r="E166">
+        <v>17.352810000000002</v>
+      </c>
+      <c r="F166">
+        <v>57.078490000000002</v>
+      </c>
+      <c r="G166" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>508</v>
+      </c>
+      <c r="C167" t="s">
+        <v>272</v>
+      </c>
+      <c r="D167">
+        <v>90159</v>
+      </c>
+      <c r="E167">
+        <v>43.066580000000002</v>
+      </c>
+      <c r="F167">
+        <v>-97.820840000000004</v>
+      </c>
+      <c r="G167" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>510</v>
+      </c>
+      <c r="C168" t="s">
+        <v>511</v>
+      </c>
+      <c r="D168" t="s">
+        <v>512</v>
+      </c>
+      <c r="E168">
+        <v>25.88842</v>
+      </c>
+      <c r="F168">
+        <v>-33.40654</v>
+      </c>
+      <c r="G168" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>514</v>
+      </c>
+      <c r="C169" t="s">
+        <v>515</v>
+      </c>
+      <c r="D169">
+        <v>92541</v>
+      </c>
+      <c r="E169">
+        <v>-40.552669999999999</v>
+      </c>
+      <c r="F169">
+        <v>168.94299000000001</v>
+      </c>
+      <c r="G169" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>517</v>
+      </c>
+      <c r="C170" t="s">
+        <v>518</v>
+      </c>
+      <c r="D170">
+        <v>2293</v>
+      </c>
+      <c r="E170">
+        <v>43.642749999999999</v>
+      </c>
+      <c r="F170">
+        <v>-155.51769999999999</v>
+      </c>
+      <c r="G170" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>520</v>
+      </c>
+      <c r="C171" t="s">
+        <v>521</v>
+      </c>
+      <c r="D171">
+        <v>63469</v>
+      </c>
+      <c r="E171">
+        <v>-26.81024</v>
+      </c>
+      <c r="F171">
+        <v>-58.594790000000003</v>
+      </c>
+      <c r="G171" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>523</v>
+      </c>
+      <c r="C172" t="s">
+        <v>524</v>
+      </c>
+      <c r="D172">
+        <v>69691</v>
+      </c>
+      <c r="E172">
+        <v>41.329180000000001</v>
+      </c>
+      <c r="F172">
+        <v>62.502870000000001</v>
+      </c>
+      <c r="G172" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>526</v>
+      </c>
+      <c r="C173" t="s">
+        <v>527</v>
+      </c>
+      <c r="D173">
+        <v>15780</v>
+      </c>
+      <c r="E173">
+        <v>-59.776870000000002</v>
+      </c>
+      <c r="F173">
+        <v>-52.054819999999999</v>
+      </c>
+      <c r="G173" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>529</v>
+      </c>
+      <c r="C174" t="s">
+        <v>530</v>
+      </c>
+      <c r="D174" t="s">
+        <v>531</v>
+      </c>
+      <c r="E174">
+        <v>18.120809999999999</v>
+      </c>
+      <c r="F174">
+        <v>-142.11813000000001</v>
+      </c>
+      <c r="G174" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>319</v>
+      </c>
+      <c r="C175" t="s">
+        <v>533</v>
+      </c>
+      <c r="D175">
+        <v>2670</v>
+      </c>
+      <c r="E175">
+        <v>-19.237210000000001</v>
+      </c>
+      <c r="F175">
+        <v>104.08141999999999</v>
+      </c>
+      <c r="G175" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>220</v>
+      </c>
+      <c r="C176" t="s">
+        <v>535</v>
+      </c>
+      <c r="D176" t="s">
+        <v>536</v>
+      </c>
+      <c r="E176">
+        <v>-70.030919999999995</v>
+      </c>
+      <c r="F176">
+        <v>25.711819999999999</v>
+      </c>
+      <c r="G176" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>538</v>
+      </c>
+      <c r="C177" t="s">
+        <v>539</v>
+      </c>
+      <c r="D177">
+        <v>48155</v>
+      </c>
+      <c r="E177">
+        <v>-27.275010000000002</v>
+      </c>
+      <c r="F177">
+        <v>53.362589999999997</v>
+      </c>
+      <c r="G177" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>97</v>
+      </c>
+      <c r="C178" t="s">
+        <v>541</v>
+      </c>
+      <c r="D178" t="s">
+        <v>542</v>
+      </c>
+      <c r="E178">
+        <v>86.854200000000006</v>
+      </c>
+      <c r="F178">
+        <v>-13.32152</v>
+      </c>
+      <c r="G178" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>544</v>
+      </c>
+      <c r="C179" t="s">
+        <v>545</v>
+      </c>
+      <c r="D179" t="s">
+        <v>546</v>
+      </c>
+      <c r="E179">
+        <v>68.775899999999993</v>
+      </c>
+      <c r="F179">
+        <v>159.50825</v>
+      </c>
+      <c r="G179" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>548</v>
+      </c>
+      <c r="C180" t="s">
+        <v>549</v>
+      </c>
+      <c r="D180">
+        <v>67997</v>
+      </c>
+      <c r="E180">
+        <v>19.888400000000001</v>
+      </c>
+      <c r="F180">
+        <v>137.63051999999999</v>
+      </c>
+      <c r="G180" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>551</v>
+      </c>
+      <c r="C181" t="s">
+        <v>552</v>
+      </c>
+      <c r="D181" t="s">
+        <v>553</v>
+      </c>
+      <c r="E181">
+        <v>25.56739</v>
+      </c>
+      <c r="F181">
+        <v>1.1973199999999999</v>
+      </c>
+      <c r="G181" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>555</v>
+      </c>
+      <c r="C182" t="s">
+        <v>533</v>
+      </c>
+      <c r="D182" t="s">
+        <v>556</v>
+      </c>
+      <c r="E182">
+        <v>26.41236</v>
+      </c>
+      <c r="F182">
+        <v>-32.647010000000002</v>
+      </c>
+      <c r="G182" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>558</v>
+      </c>
+      <c r="C183" t="s">
+        <v>559</v>
+      </c>
+      <c r="D183">
+        <v>3813</v>
+      </c>
+      <c r="E183">
+        <v>10.381729999999999</v>
+      </c>
+      <c r="F183">
+        <v>82.827960000000004</v>
+      </c>
+      <c r="G183" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>241</v>
+      </c>
+      <c r="C184" t="s">
+        <v>561</v>
+      </c>
+      <c r="D184">
+        <v>1060</v>
+      </c>
+      <c r="E184">
+        <v>-33.247680000000003</v>
+      </c>
+      <c r="F184">
+        <v>-151.08283</v>
+      </c>
+      <c r="G184" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>563</v>
+      </c>
+      <c r="C185" t="s">
+        <v>564</v>
+      </c>
+      <c r="D185">
+        <v>897272</v>
+      </c>
+      <c r="E185">
+        <v>-1.7765599999999999</v>
+      </c>
+      <c r="F185">
+        <v>167.25219999999999</v>
+      </c>
+      <c r="G185" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>255</v>
+      </c>
+      <c r="C186" t="s">
+        <v>566</v>
+      </c>
+      <c r="D186" t="s">
+        <v>567</v>
+      </c>
+      <c r="E186">
+        <v>65.333460000000002</v>
+      </c>
+      <c r="F186">
+        <v>37.689630000000001</v>
+      </c>
+      <c r="G186" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>505</v>
+      </c>
+      <c r="C187" t="s">
+        <v>569</v>
+      </c>
+      <c r="D187">
+        <v>534870</v>
+      </c>
+      <c r="E187">
+        <v>-16.854479999999999</v>
+      </c>
+      <c r="F187">
+        <v>-135.60480999999999</v>
+      </c>
+      <c r="G187" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>424</v>
+      </c>
+      <c r="C188" t="s">
+        <v>571</v>
+      </c>
+      <c r="D188">
+        <v>84677</v>
+      </c>
+      <c r="E188">
+        <v>-83.245360000000005</v>
+      </c>
+      <c r="F188">
+        <v>-123.64596</v>
+      </c>
+      <c r="G188" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>573</v>
+      </c>
+      <c r="C189" t="s">
+        <v>574</v>
+      </c>
+      <c r="D189">
+        <v>547218</v>
+      </c>
+      <c r="E189">
+        <v>31.34965</v>
+      </c>
+      <c r="F189">
+        <v>45.618450000000003</v>
+      </c>
+      <c r="G189" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>576</v>
+      </c>
+      <c r="C190" t="s">
+        <v>577</v>
+      </c>
+      <c r="D190" t="s">
+        <v>578</v>
+      </c>
+      <c r="E190">
+        <v>-6.80457</v>
+      </c>
+      <c r="F190">
+        <v>41.159460000000003</v>
+      </c>
+      <c r="G190" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>580</v>
+      </c>
+      <c r="C191" t="s">
+        <v>581</v>
+      </c>
+      <c r="D191">
+        <v>656964</v>
+      </c>
+      <c r="E191">
+        <v>-89.141319999999993</v>
+      </c>
+      <c r="F191">
+        <v>-99.051289999999995</v>
+      </c>
+      <c r="G191" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>583</v>
+      </c>
+      <c r="C192" t="s">
+        <v>584</v>
+      </c>
+      <c r="D192">
+        <v>5017</v>
+      </c>
+      <c r="E192">
+        <v>74.650819999999996</v>
+      </c>
+      <c r="F192">
+        <v>178.85256000000001</v>
+      </c>
+      <c r="G192" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>586</v>
+      </c>
+      <c r="C193" t="s">
+        <v>587</v>
+      </c>
+      <c r="D193" t="s">
+        <v>588</v>
+      </c>
+      <c r="E193">
+        <v>45.692030000000003</v>
+      </c>
+      <c r="F193">
+        <v>-179.11338000000001</v>
+      </c>
+      <c r="G193" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>590</v>
+      </c>
+      <c r="C194" t="s">
+        <v>591</v>
+      </c>
+      <c r="D194">
+        <v>18360</v>
+      </c>
+      <c r="E194">
+        <v>40.312730000000002</v>
+      </c>
+      <c r="F194">
+        <v>171.96403000000001</v>
+      </c>
+      <c r="G194" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>593</v>
+      </c>
+      <c r="C195" t="s">
+        <v>173</v>
+      </c>
+      <c r="D195">
+        <v>32343</v>
+      </c>
+      <c r="E195">
+        <v>21.16084</v>
+      </c>
+      <c r="F195">
+        <v>6.5968099999999996</v>
+      </c>
+      <c r="G195" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>595</v>
+      </c>
+      <c r="C196" t="s">
+        <v>530</v>
+      </c>
+      <c r="D196">
+        <v>506322</v>
+      </c>
+      <c r="E196">
+        <v>-20.19229</v>
+      </c>
+      <c r="F196">
+        <v>2.0595300000000001</v>
+      </c>
+      <c r="G196" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>597</v>
+      </c>
+      <c r="C197" t="s">
+        <v>598</v>
+      </c>
+      <c r="D197">
+        <v>119858</v>
+      </c>
+      <c r="E197">
+        <v>47.069330000000001</v>
+      </c>
+      <c r="F197">
+        <v>-104.88758</v>
+      </c>
+      <c r="G197" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>600</v>
+      </c>
+      <c r="C198" t="s">
+        <v>601</v>
+      </c>
+      <c r="D198">
+        <v>77725</v>
+      </c>
+      <c r="E198">
+        <v>-80.99588</v>
+      </c>
+      <c r="F198">
+        <v>-117.69345</v>
+      </c>
+      <c r="G198" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>603</v>
+      </c>
+      <c r="C199" t="s">
+        <v>604</v>
+      </c>
+      <c r="D199" t="s">
+        <v>605</v>
+      </c>
+      <c r="E199">
+        <v>-45.077860000000001</v>
+      </c>
+      <c r="F199">
+        <v>12.159520000000001</v>
+      </c>
+      <c r="G199" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>606</v>
+      </c>
+      <c r="C200" t="s">
+        <v>607</v>
+      </c>
+      <c r="D200">
+        <v>5910</v>
+      </c>
+      <c r="E200">
+        <v>68.234219999999993</v>
+      </c>
+      <c r="F200">
+        <v>-179.29276999999999</v>
+      </c>
+      <c r="G200" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>609</v>
+      </c>
+      <c r="C201" t="s">
+        <v>610</v>
+      </c>
+      <c r="D201">
+        <v>66269</v>
+      </c>
+      <c r="E201">
+        <v>50.567279999999997</v>
+      </c>
+      <c r="F201">
+        <v>-100.82989000000001</v>
+      </c>
+      <c r="G201" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
